--- a/excels/investment.xlsx
+++ b/excels/investment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="22020" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="investment" sheetId="1" r:id="rId1"/>
@@ -986,15 +986,15 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="25.6333333333333" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="20.8181818181818" customWidth="1"/>
-    <col min="4" max="5" width="31.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="20.8166666666667" customWidth="1"/>
+    <col min="4" max="5" width="31.4583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1069,7 +1069,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1086,7 +1086,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excels/investment.xlsx
+++ b/excels/investment.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="investment" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>序号</t>
   </si>
@@ -38,6 +36,9 @@
   </si>
   <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>icon</t>
   </si>
   <si>
     <t>cost</t>
@@ -52,7 +53,13 @@
     <t>gold</t>
   </si>
   <si>
+    <t>resource/gold.png</t>
+  </si>
+  <si>
     <t>lumber</t>
+  </si>
+  <si>
+    <t>resource/wood.png</t>
   </si>
 </sst>
 </file>
@@ -983,18 +990,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="25.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="20.8166666666667" customWidth="1"/>
-    <col min="4" max="5" width="31.4583333333333" customWidth="1"/>
+    <col min="2" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="20.8166666666667" customWidth="1"/>
+    <col min="5" max="6" width="31.4583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1002,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1018,38 +1025,47 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>100</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>100</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
         <v>10</v>
       </c>
     </row>
@@ -1058,38 +1074,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>